--- a/portfolio_obligacje.xlsx
+++ b/portfolio_obligacje.xlsx
@@ -463,15 +463,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ARH0227</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>BST0726</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Windykacja i zarządzanie wierzytelnościami</t>
+        </is>
+      </c>
       <c r="C2" t="n">
         <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -482,10 +486,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANW1126</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>CAV0927</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Deweloper nieruchomości komercyjnych</t>
+        </is>
+      </c>
       <c r="C3" t="n">
         <v>100</v>
       </c>
@@ -501,15 +509,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AOW1225</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>CAV0927</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Deweloper nieruchomości komercyjnych</t>
+        </is>
+      </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -536,99 +548,99 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BST0726</t>
+          <t>ACH0427</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Windykacja i zarządzanie wierzytelnościami</t>
+          <t>Deweloper nieruchomości</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-06</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CAV0927</t>
+          <t>ACH1125</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Deweloper nieruchomości komercyjnych</t>
+          <t>Deweloper nieruchomości</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CAV0927</t>
+          <t>BST0226</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Deweloper nieruchomości komercyjnych</t>
+          <t>Windykacja i zarządzanie wierzytelnościami</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-06</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CAV0927</t>
+          <t>BST0226</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Deweloper nieruchomości komercyjnych</t>
+          <t>Windykacja i zarządzanie wierzytelnościami</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-06</t>
         </is>
       </c>
     </row>

--- a/portfolio_obligacje.xlsx
+++ b/portfolio_obligacje.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,6 +644,52 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ARH0227</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Deweloper nieruchomości</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>101.62</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>KRI1025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Zarządzanie wierzytelnościami</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-01-07</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/portfolio_obligacje.xlsx
+++ b/portfolio_obligacje.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -690,6 +690,75 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ARL1226</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Deweloper nieruchomości</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>102</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BST0226</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Windykacja i zarządzanie wierzytelnościami</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>30</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CAV0927</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Deweloper nieruchomości komercyjnych</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>96.12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
